--- a/tables/Вокзал Тверь.xlsx
+++ b/tables/Вокзал Тверь.xlsx
@@ -823,12 +823,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
